--- a/oneword.xlsx
+++ b/oneword.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00Blog\source\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89811D51-5D01-49BA-9CB7-259677F413D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20917" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="ruleForOneword" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\r-desktop\ruleForOneword.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="ruleForOneword" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\r-desktop\ruleForOneword.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="243">
   <si>
     <t>No</t>
   </si>
@@ -45,171 +39,142 @@
     <t>from_who</t>
   </si>
   <si>
+    <t>火影，是没有捷径可走的。</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>火影忍者</t>
+  </si>
+  <si>
+    <t>漩涡鸣人</t>
+  </si>
+  <si>
+    <t>说道做到，这就是我的忍道！</t>
+  </si>
+  <si>
+    <t>在忍者的世界里，不遵守规则和规定的人被称作废物。但是，不珍视同伴的人，连废物都不如。</t>
+  </si>
+  <si>
+    <t>宇智波带土/旗木卡卡西</t>
+  </si>
+  <si>
     <t>你为了你的正义，我为了我的正义。</t>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>火影忍者</t>
-  </si>
-  <si>
-    <t>火影，是没有捷径可走的。</t>
-  </si>
-  <si>
-    <t>漩涡鸣人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>说道做到，这就是我的忍道！</t>
-  </si>
-  <si>
     <t>我所认为最深沉的爱,莫过于分开以后,我将自己活成了你的样子。</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>这个杀手不太冷</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>鸣人，别挑食，好好吃饭，快快长大！每天都要洗澡，让身体暖暖的。另外不要熬夜，保证睡眠...还有要交朋友，不用很多。真正能信赖的朋友有那么几个就够了...另外妈妈我做得不好，但你要好好读书学习，练习忍术...但是谁都有擅长和不擅长的东西，所以学的不好也不要因此而灰心丧气。在忍者学校里要尊敬老师和前辈...啊，还有很重要的事情。关于忍者三禁，特别是“金钱”的借贷方面要注意...任务报酬好好存起来...还有“酒”到20岁才能喝...喝多了对身体不好...所以...有节制才行...还有三禁最大的问题“女人”...妈妈..自己是个女人...不是特别明白...总之...这个世界上只有男人和女人...你会喜欢上女孩子的...不要被不好的女孩子骗了...找一个像妈妈一样的女孩子...!!另外说到三禁还有一点...要小心自来也老师...鸣人以后...痛苦...磨难...会有很多...你要坚持自我，还要心怀梦想...还有...要怀揣能实现梦想的自信...！！还有！！还有..！！还有...！！还有！！还有...真的还有许多事情真的想要...一起教给你...还想要更多时间和你在一起...妈妈爱你...</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>漩涡玖辛奈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>考上了忍者学校，也别骄傲啊。照这样下去，那孩子会比你更厉害。迈特凯，今后会变成比任何人都强的男人。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>木叶白牙·旗木朔茂</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在体术方面，与我交过手的人当中，没人比你更优秀！我斑愿意称你为最强！！</t>
   </si>
   <si>
-    <t>火影忍者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>宇智波·斑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在已经有觉悟的男人面前，哀愁和悲伤都是对他的侮辱！</t>
   </si>
   <si>
     <t>洛克李</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自来也豪杰物语...就这样结束，也还不错。井底之蛙，终归大海...之卷吗？哈哈，还挺伟大的呢...了不起啊。嗯...差不多要收笔了。哦哦，对了，续传的题目叫什么好呢？对啊...旋涡鸣人物语...挺好...就这个了..</t>
   </si>
   <si>
     <t>自来也</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>木叶的苍蓝猛兽已经不在了，红色猛兽的时代即将来临！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>迈特凯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>人就是这样 越是没有实力越爱说大话 世界上只有没有实力的人 才整天希望别人赞赏。</t>
   </si>
   <si>
     <t>旗木卡卡西</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我啊，只想安稳地做个忍者，安稳地生活，和一个不美也不丑的女人安稳地结婚，安稳地生两个小孩，第一个是女孩，之后是男孩。等女儿结了婚，儿子独立后便退休，之后闲时和朋友下下象棋或围棋，过着悠哉悠哉的隐居生活，然后先太太一步离开这个世界，能有这种人生就好了。</t>
   </si>
   <si>
     <t>鹿丸</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不相信自己的人连努力的价值都没有。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>并不是成为火影的人就会被大家所认可,而是被大家所认可的人才能成为火影。</t>
   </si>
   <si>
     <t>宇智波鼬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我可是拼了命去做的，不要用“天才”两个字抹杀我的努力！</t>
   </si>
   <si>
     <t>宇智波佐助</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>事出总是突然的，而理由则是后来加上去的。</t>
   </si>
   <si>
     <t>漩涡长门</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在忍者的世界里，不遵守规则和规定的人被称作废物。但是，不珍视同伴的人，连废物都不如。</t>
-  </si>
-  <si>
-    <t>宇智波带土/旗木卡卡西</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>但是，唯独在努力这点上，我不想输给他。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自来也豪杰物语...就这样结束，也还不错。井底之蛙，终归大海...之卷吗？哈哈，还挺伟大的呢...了不起啊。嗯...差不多要收笔了。哦哦，对了，续传的题目叫什么好呢？对啊...旋涡鸣人物语...挺好...就这个了..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>海贼王，我当定了！</t>
   </si>
   <si>
     <t>海贼王</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>路飞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>人的梦想是永远不会结束的！</t>
   </si>
   <si>
     <t>黑胡子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>坏蛋不需要同情，但是家人是不同的。</t>
   </si>
   <si>
     <t>卡普</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是一个厨师，就得无条件的给客人上菜！</t>
   </si>
   <si>
     <t>山治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦的时候要是不能在一起，那还叫伙伴吗！</t>
   </si>
   <si>
     <t>乌索普</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不要随随便便同情失败者，这会伤了他的自尊心。</t>
@@ -219,17 +184,9 @@
   </si>
   <si>
     <t>妮可·罗宾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是死是活都听天由命，害怕的话你就输了！</t>
-  </si>
-  <si>
-    <t>苦难算什么，我本来，就喜欢走上阿修罗之路。</t>
-  </si>
-  <si>
-    <t>罗罗亚诺·索隆</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -237,760 +194,598 @@
         <sz val="11"/>
         <color rgb="FF121212"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>马歇尔·D·蒂奇</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦难算什么，我本来，就喜欢走上阿修罗之路。</t>
+  </si>
+  <si>
+    <t>罗罗亚诺·索隆</t>
+  </si>
+  <si>
+    <t>未吃他人苦，莫劝他人善</t>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未吃他人苦，莫劝他人善</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>你用谎言验证得到的一定是谎言</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>百善孝为先，论心不论迹，论迹贫家无孝子；万恶淫为首，论迹不论心，论心世上少完人。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>你躺平没人管你，但装出一副我看透世界的样子真让人恶心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在没有人相信你的时候，你相信了自己，这就是成为英雄的道路。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>真心接受批评不是对他人让步，而是真正自己成长。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>真正聪明的极少，自命不凡的却有很多。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>饶毅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>眼高手低比眼低手低更胜一筹。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>邪恶能胜利的唯一理由，是善良的人们无所作为。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>——“你的人生中有重大的变故吗？这变故突然完全改变了你的生活，对你来说，世界在一夜之间变得完全不同。”——“没有”——“那你的生活是一种偶然，世界有这么多变幻莫测的因素，你的人生却没什么变故。”——“大部分人都是这样嘛。”——“那大部分人的人生都是偶然。”——“可…多少代人都是这么平淡地过来的。”——“都是偶然。”</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>三体</t>
   </si>
   <si>
     <t>消灭人类暴政，世界属于三体</t>
   </si>
   <si>
     <t>……一个大人和一个小孩儿站在死于武斗的红卫兵墓前，那孩子问大人：他们是烈士吗？大人说不是；孩子又问：他们是敌人吗？大人说不是；孩子再问：那他们是什么？大人说：是历史。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>虫子从来就没有被真正战胜过。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>大史</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这是计划的一部分。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>罗辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>——你知道看重一个种族或文明的最高表现形式是什么？——什么？——斩尽杀绝，这是对一个文明最高的重视。</t>
   </si>
   <si>
     <t>毁灭你，与你何干？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>傻孩子们，快跑啊！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛苦的时候要是不能在一起，那还叫伙伴吗！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>丁仪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>自然选择，前进四！</t>
   </si>
   <si>
     <t>章北海</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>对于所犯下的罪行，我对两个文明表示深深的歉意，但不会忏悔。</t>
   </si>
   <si>
     <t>你们对人类的呼唤从不理睬，无言是最大的轻蔑。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>给岁月以文明，而不是给文明以岁月。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>碑是那么小，与其说是为了纪念，更像是为了忘却。</t>
   </si>
   <si>
-    <t>三体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>刘慈欣</t>
   </si>
   <si>
     <t>前进！前进！不择手段的前进！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>韦德</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘慈欣</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我说，你最喜欢哪个季节？”“秋天”“为什么不是春天”“春天，好多感觉挤在一起，累人呢，秋天多好”“倒不如说郁郁葱葱得让人嫉妒”</t>
   </si>
   <si>
     <t>在宇宙中，你再快都有比你更快的，你再慢也有比你更慢的。</t>
   </si>
   <si>
     <t>失去人性，失去很多；失去兽性，失去一切</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>托马斯·韦德</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>人类不感谢罗辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在中国，任何超脱飞扬的思想都会砰然坠地--现实的引力实在是太沉重了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>弱小和无知不是生存的障碍，傲慢才是。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>——那我该怎么办？——要多想——想了以后呢？——北海呀，我只能告诉你，那以前，要多想</t>
   </si>
   <si>
     <t>不不，别说在哪儿！一知道在哪儿，世界就变得像一张地图那么小了；不知道在哪儿，感觉世界才广阔呢。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>真的猛士，敢于直面惨淡的人生、敢于正视淋漓的鲜血。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>鲁迅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>人生的美妙在于你能迷上什么东西。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>球状闪电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>长城和金字塔都是完全失败的超级工程，前者没能挡住北方骑马民族的入侵，后者也没能使其中的法老木乃伊复活，但时间使这些都无关紧要，只有凝结于其上的人类精神永远光彩照人！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>地球大炮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以后的岁月中，我到过很多地方，每到一个处，我都喜欢躺在那里的大地上。我曾经躺在海南岛的海滩上、阿拉斯加的冰雪上、俄罗斯的白桦林中、撒哈拉烫人的沙漠上......每到那个时刻，地球在我脑海中就变得透明了,在我下面六千多公里深处,在这巨大的水晶球中心,我看到了停汨在那里的"落日六号"地航飞船,感受到了从几千公里深的`地球中心传出的她的心跳。我想象着金色的阳光和银色的月光透射到这个星球的中心,我听到了那里传出的她吟唱的&lt;&lt;月光&gt;&gt;,还听到她那轻柔的话音:"......多美啊,这又是另一种音乐了.....。有一个想法安慰着我：不管走到天涯海角，我离她都不会再远了。</t>
   </si>
   <si>
     <t>带上她的眼睛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我们理解所有的人，因为已经进行了四十代人，还要延续一百代人的艰难奋斗中，永远保持理智却是是一个奢求。但也请所有人记住我们，站在这里的五千多人，既有联合政府的最高执政官，也有普通的列兵，是我们把信念坚持到了最后。我们都知道自己看不到真理被证实的那一天，如果人类得以延续万代，以后所有的人将在我们的墓前撒下自己的眼泪，这颗叫地球的行星，就是我们永恒的纪念碑！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>流浪地球</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>要跟恶魔作战，就得先把自己变成恶魔。可这样即使你赢了又如何呢？那不是你的胜利，而是恶魔的胜利</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>龙族</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>江南</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>可人不是断气的时候才真的死了。有人说人会死三次，第一次是他断气的时候 ，从生物学上他死了；第二次是他下葬的时候，人们来参加他的葬礼，怀念他的一生，然后在社会上他死了，不再会有他的位置；第三次是最后一个记得他的人把他忘记的时候，那时候他才真正的死了。</t>
   </si>
   <si>
+    <t>有些路你和某人一起走，就长得离谱，你和另外一些人走，就短得让人舍不得迈开脚步。</t>
+  </si>
+  <si>
     <t>这个世界其实从不曾有一个人能取代另一个人的位置，所谓的取代，只是以前的那个人被遗忘了</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我猜，只是猜，每个人的一生都会遇见某些人，喜欢上她。有些人在合适的时间里遇到，就像是在春天遇到花开，所以一切都很好，他们会相恋、订婚、结婚、一起生活。而有的人在错误的时间遇到 ，就像是在冬天，隔着冰看见浮上来换气的鱼，所以只能看着，鱼换完气，沉到水下去，就看不见了，再也没有后续。但是我们能说在春天遇到花是对的，而在冬天遇到鱼是错的么？在错误的时间里遇到，就能克制自己不喜欢那个人么？是不是仍然会用尽了力气想去接近，想尽办法掩饰自己，甚至伪装成另外一条鱼。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“04.24，和Sakura去东京天空树，世界上最暖和的地方在天空树的顶上。”“04.25，和Sakura去明治神宫，有人在那里举办婚礼。”“04.26，和Sakura去迪士尼，鬼屋很可怕，但是有Sakura在，所以不可怕。”“Sakura最好了。”...</t>
   </si>
   <si>
     <t>不要死，我朋友不多的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>往往就是这样，因为告别的时候忘了约定再见的时间，从此就天各一方。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这个世界有多大，取决于你认识的人，你每认识一个人，世界对你来说就会变大一些</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>路明非</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当谎言重复一千遍的时候，你就会相信它，只要那个谎言足够美好。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“04.24，和Sakura去东京天空树，世界上最暖和的地方在天空树的顶上。”“04.25，和Sakura去明治神宫，有人在那里举办婚礼。”“04.26，和Sakura去迪士尼，鬼屋很可怕，但是有Sakura在，所以不可怕。”“Sakura最好了。”...</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在以后的岁月中，我到过很多地方，每到一个处，我都喜欢躺在那里的大地上。我曾经躺在海南岛的海滩上、阿拉斯加的冰雪上、俄罗斯的白桦林中、撒哈拉烫人的沙漠上......每到那个时刻，地球在我脑海中就变得透明了,在我下面六千多公里深处,在这巨大的水晶球中心,我看到了停汨在那里的"落日六号"地航飞船,感受到了从几千公里深的`地球中心传出的她的心跳。我想象着金色的阳光和银色的月光透射到这个星球的中心,我听到了那里传出的她吟唱的&lt;&lt;月光&gt;&gt;,还听到她那轻柔的话音:"......多美啊,这又是另一种音乐了.....。有一个想法安慰着我：不管走到天涯海角，我离她都不会再远了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>月盈则亏，还是留点遗憾吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>大义灭亲这种对实际关系的攻击 表面上遵循了法律， 实际上攻击了社会的底层逻辑–信任。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>让世界充满爱的前提是，先爱你身边的人。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>没必要，无所谓，不至于</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>每个人都是带着成见来看待世界的，如果你不带着成见，那你对世界根本就没有看待方式。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>许知远</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>子曰：‘知者不惑，仁者不忧，勇者不惧。’</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>论语·子罕</t>
   </si>
   <si>
     <t>高山仰止，景行(hang)行(xing)止。虽不能至，心向往之。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>诗经</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>子曰：‘知者不惑，仁者不忧，勇者不惧。’</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>论语·子罕</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我们对年龄的恐惧，并不在于年龄增加带来的苍老，而是恐惧随着年龄的增长，自己仍然一无所获。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>一些事实呈现时寂静，一些悲惨来临时欢呼，若寂静与欢呼皆因立场而起，那实在是太可悲了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>185同学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>一天的生活不过是一生的缩影罢了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>升米恩，斗米仇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>炫耀的人不会拥有自信，只会露出自卑的尾巴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>善良的人做好事是为了善良，而不是炫耀。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>——“你的人生中有重大的变故吗？这变故突然完全改变了你的生活，对你来说，世界在一夜之间变得完全不同。”——“没有”——“那你的生活是一种偶然，世界有这么多变幻莫测的因素，你的人生却没什么变故。”——“大部分人都是这样嘛。”——“那大部分人的人生都是偶然。”——“可…多少代人都是这么平淡地过来的。”——“都是偶然。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>——你知道看重一个种族或文明的最高表现形式是什么？——什么？——斩尽杀绝，这是对一个文明最高的重视。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“我说，你最喜欢哪个季节？”“秋天”“为什么不是春天”“春天，好多感觉挤在一起，累人呢，秋天多好”“倒不如说郁郁葱葱得让人嫉妒”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有些路你和某人一起走，就长得离谱，你和另外一些人走，就短得让人舍不得迈开脚步。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>——那我该怎么办？——要多想——想了以后呢？——北海呀，我只能告诉你，那以前，要多想</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>爱你所爱，行你所行，听从你心，无问西东</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>无问西东</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不抛弃，不放弃。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>士兵突击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>别再让你爸叫你龟儿子！</t>
   </si>
   <si>
     <t>史今</t>
   </si>
   <si>
-    <t>别再让你爸叫你龟儿子！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>有意义就是好好活，好好活就是做有意义的事。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>许三多</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人不是做出来的，是活出来的。</t>
+  </si>
+  <si>
+    <t>别混日子了，小心让日子把你们给混了。</t>
   </si>
   <si>
     <t>老马</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>信念这玩意不是说出来的，是做出来的。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>草原五班</t>
   </si>
   <si>
     <t>光荣在于平淡，艰巨在于漫长</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>人不能过得太舒服，太舒服就会出问题。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>想到和得到，中间还有两个字，那就是要做到！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>团长</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>平常心，平常心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>吴哲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“我酒量半斤，和你喝，两斤吧!”“我酒量二两，和你喝，舍命。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>袁朗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>别以为我来七连没几天，就长不出七连的骨头!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>马小帅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你以为想通了就万事亨通吗, 这过日子就是问题叠着问题。你唯一能做的就是迎接这些问题</t>
   </si>
   <si>
     <t>高城</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>只要今天比昨天好，这不就是希望吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>史今</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要对一件没有做过的事儿说没有意义。</t>
   </si>
   <si>
     <t>以后就要常相守了，常相守是个考验，随时随地，一生。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不懂得知足的人，不懂得啥叫感谢。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>成才</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>别混日子了，小心让日子把你们给混了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>草原五班</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>他所做的每件小事就好像抓住一棵救命稻草一样，到最后你才发现，他抱住的已经是参天大树了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>明明是个强人,天生一副熊样。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>你以为想通了就万事亨通吗, 这过日子就是问题叠着问题。你唯一能做的就是迎接这些问题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要对一件没有做过的事儿说没有意义。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>一个很安分的兵，不太焦虑，耐得住寂寞。有很多人天天都在焦虑，怕没得到，怕寂寞。我喜欢不焦虑的人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我是一个瘸子，就不敢太偷懒了，要不......以后瘸的就不光是腿了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>伍六一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我敬佩一位老军人，他说，他费尽心血却不敢妄谈胜利，他只想他的部下能在战场上少死几个，他说这是军人的人道。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“我遇到一个亡命徒，我是全副武装，他只有一把改锥。”“我忘了我还带着枪，忘了一切的战斗技能，他没忘他拿着一把改锥，也没忘他要杀我。善一旦遇到恶，先受伤的总是善良，所以我后来对自己说，袁朗，你一定要做恶的善良人，因为你不能让你的部下受伤。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>人不是做出来的，是活出来的。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>吃苦不等同于穷，忍受贫穷的能力不等于吃苦。就很多人说啊我很能吃苦我很会搬砖，我能这种体力上的苦怎么我很能忍受。不是的。吃苦的本质是你长时间对某个事情而聚焦的能力。就在这个过程当中你只是聚焦在这件事情上。这个过程当中就放弃娱乐生活、放弃无效社交、放弃没有意义的消费。以及在这过程当中可能不被人理解的那种孤独。你会看到那些白手起家的富人往往比穷人更能吃苦，否则他们不可能白手起家。你会看到他们有钱了以后还是比穷人更愿意思考，更能忍受孤独。（吃苦）它本质上是一种自控能力、自制能力和深度思考的能力，这才叫吃苦！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>山城小栗旬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>上帝为每一只笨鸟都准备了一个矮树枝</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>生活就是用一种焦虑代替另一种焦虑，用一种欲望代替另一种欲望的过程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>初心易得，始终难守。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>如果你一直都在丢芝麻捡西瓜，如果你不能意识到“完美是幸福的敌人”，那你就剥夺了让自己快乐的权利。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>也许你该找个人聊聊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lori Gottlieb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在断言别人抑郁之前，你得先确定他们是不是每天都要面对一群混蛋。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>愤怒是大多数人最容易进入的情绪，因为它是指向外在的，愤怒地责怪别人能让你感到痛快又义正词严。但宣泄出来的情绪往往只是冰山的一角，如果你透过表层去看，就能瞥见表象下积聚着更多情绪，那些你没意识到的或是不想表达出来的情绪：恐惧、无助、嫉妒、孤独、不安。如果你能包容这些更深层的情绪，在足够长的时间里去理解它们，倾听它们的诉求，你将能更有效地管理你的愤怒，那你也就不会总是怒气冲冲的了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>追随你的嫉妒心，它会告诉你你想要什么。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>如果一个方法不起效，那就换个别的方法。为什么要一次次重复同样的没有帮助的事呢？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>但没有人能永远把深刻的情感封存在心里。最终，情感还是会不可避免地找到出口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有时候我们唯一能做的只是大喊一声：操！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>人们想给自己的问题找到一个快速的解决方案，但殊不知一开始导致他们情绪问题的，就是生活中太过匆忙的节奏。他们以为现在的忙碌是为了以后能够机会享受生活，但往往，后来就没有“后来”了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>研究表明，人们倾向于根据事情的结局来记住自己经历了什么。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>如果你太拘泥于细节，可能会忽略掉整件事的重点。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>一切都会有答案，顺其自然。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我们都是在和别人的关系中成长的。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在经历痛苦的最初阶段，人们总是倾向于抨击他人或自己，让怒火向外或向内转化。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>治疗的关键在于治疗性的举动，而不在于治疗性的言语。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>如果我想要以开放的心态去理解男友的想法，行动上却只是想要证明自己的观点而不是真诚地去和他交流，那将很难达成所愿</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>真相不会因为我们的承受能力而改变</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>弗兰纳里·奥康纳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>但是，如果你把生命都浪费在哀叹你没去成意大利这件事上，你就永远不能自由地享受荷兰非常特别、非常美好的方方面面了。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>幸福的根源并不在于事情发展得有多顺利，而在于事情的发展是否好于预期。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“一个囚犯在不停地摇着铁栏杆，绝望地想要出去——但其实在他的左右两边都没有栏杆，都是可以出入自由的。”他停顿了一会儿，让这个画面刻入我的脑海里。“这个囚犯只需要往边上走走就万事大吉了，他却还是疯狂地摇着铁栏杆。我们大多数人都是这样。我们觉得自己完全被困住了，被捆绑在情绪的牢笼里，但出路其实就在那儿，只要我们愿意去看到它。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当我们看着朱莉变得自信又坚定，也许会更清楚地意识到自己有多害怕去追求自己心中的那个“收银员的工作”，于是我们希望朱莉停留在原地，跟我们一样只有空想没有实干，被不存在的栏杆束缚在自己的牢笼里。是这样吗？还是只有我这么想？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>事实证明，如果不是一小时一小时掰开来，复述自己干过些什么，我们中的大多数人都不知道自己的一天是怎么过的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>大多数人所谓的“型”是一种被吸引的感觉：可能是吸引他们的一种外貌的类型，也可能是一种性格的类型。但在这种类型背后隐藏的是一种熟悉感。如果父母是易怒的人，那自己往往最终也会选择易怒的伴侣；父母有酗酒的问题的人常常会被爱喝酒的另一半吸引；如果一个人的父母孤僻或挑剔，那他很可能也会跟孤僻或挑剔的对象结婚。这些都并非巧合。……弗洛伊德称之为“强迫性重复”——人的潜意识会幻想：或许这一次我可以通过和一个新出现的但感觉熟悉的人接触，从而回到过去，抚平很久以前的创伤。但唯一的问题是，通过选择感觉熟悉的对象，人们百分之百会得到事与愿违的结果：旧伤口会被重新打开，人们只会变得更缺乏信心，感觉自己不值得被爱。……所以情况只是不断重复。同样的类型，不同的姓名，同样的结果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有时候人们在童年时期所受的管教会造成他们成年后无法判断自己的情绪。例如当孩子说“我生气了”，家长会说：“真的吗？就为这么一件小事吗？你太敏感了！”当孩子说“我很难过”，家长会说：“别难过，看，这儿有个气球！”或者，当孩子说“我害怕”，家长又会说：“没什么好怕的，你又不是小宝宝。”但没有人能永远把深刻的情感封存在心里。最终，情感还是会不可避免地找到出口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“好吧，虽然结婚誓词上是写着‘无论疾病或健康’‘无论顺境或逆境’，等等等等，但这就像你在下载一个软件或申请一张信用卡的时候要签的用户协议一样，你只是按下了‘同意’键，但你并不认为有朝一日其中的条款会适用在你身上。即使真的有什么意外，你也不会料到刚度完蜜月，还没过上新婚生活，意外就找上门了。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我曾经见过一对夫妻，在妻子得到自己梦寐以求的工作的同一天，丈夫被公司解雇了，这使得之后每一天的晚餐时间都过得异常尴尬。她应该分享多少工作中的事才不会在无意中伤害到丈夫的感受？他又该如何克制住自己的嫉妒心才不至于给她泼冷水？当另一半得到了自己求之不得的东西，人们要有多高尚才能理性地去接受这一现实呢？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>她又列举了许多她但愿自己在生病之前就能更珍惜的东西：她的胸，她以前总是觉得自己的胸不够挺，直到她不得不放弃它们；她强健的双腿，她以前总是觉得自己的腿太粗了，尽管是这双健肢支撑她完成了每次马拉松比赛；还有她沉默的聆听方式，她以前总担心别人会觉得她太无趣。她会怀念自己与众不同的笑声，五年级时有个男孩形容她是“嘎嘎地笑”，这件事曾像根刺一样留在她心上许多年，直到她嘎嘎的笑声在一间拥挤的房间里吸引了迈特的注意，把他带到她身旁并向她介绍自己。“我还会怀念我那该死的结肠！”她说着，破涕为笑，“我以前对它也不够珍惜。我会怀念坐在马桶上，怀念拉屎。谁能想到自己有朝一日会怀念拉屎呢？”她的笑容又变成了眼泪，溃堤似的眼泪。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>你有两个耳朵一张嘴，这一构造的比例肯定是有它的道理的。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>他们以为现在的忙碌是为了以后能有机会享受生活，但往往，后来就没有“后来”了。精神分析学家埃里希·弗洛姆在五十多年前就阐述过这样的观点：“现代人总是觉得如果做事不够迅速，就会损失一些时间。但面对省下来的时间又不知该怎么办，只能打发了事。”弗洛姆是对的，人们不会有多出来的时间去休息，或是联系朋友和家人。相反，他们总是试着往时间的缝隙里塞进更多的事情。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在这些忙忙碌碌的背后，有一个被长期掩埋的真相正在渐渐浮出水面，直到我踏进温德尔医生的办公室的时候，才不得不正视它的存在：我的人生已经走完一半了。在我的第一次治疗中，这句话似乎莫名其妙地就从我口中蹦了出来——而温德尔马上抓住了这个重点，就像几年前在我实习时，那位督导留下的那句话——“今日一去不复返。”然而日子还是一样飞驰而过。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>之前温德尔提到过我的悲伤——因为生命已经走过一半而感到悲伤，但在这悲伤之上，还有一层恐惧，我害怕自己像朱莉一样比预期中更早面对死亡。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这就像削掉自己的鼻子毁容一样，是在以自损的方式跟现实叫板，仿佛在说：“命运，你没想到我还有这一招吧！”我尝试理解了一下这个悖论：将自毁前程作为取得控制权的方式——“如果我自己把生活搞砸了，我就可以给自己找一条死路，而不是等着厄运来找我。”如果我死守着一段注定失败的关系，如果我亲手葬送自己的事业，如果我因为害怕就不去正视自己身体上的问题，那我就能让自己虽生犹死——但至少，这都是我自己选的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>但我在想，或许玛戈这么容易哭，是因为她长久以来一直承担着双份的悲伤。她不仅为自己而哭，也把你的那份悲伤哭了出来。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>问题是，河鼠还真的是比鼹鼠能干。论划船，河鼠划得更好；论打绳结，河鼠会打更多的花样（他甚至会打四方结），而他也确确实实在照顾鼹鼠。可即便拥有了河鼠这般的友谊和善意，鼹鼠还是不满意。他宁愿河鼠不要总这么能干，能允许他用自己的方式去尝试，哪怕做错了也没关系。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>蛤蟆先生去看心理医生</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>罗伯特·戴博德</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我们从这里开始，想象一下这个情景：你被两个仁慈的独裁者给俘虏了，他们完全掌控了你，同时，又对你倍加关心照顾。你会有什么样的感受？”“可能我对他们的感受会很复杂。”蛤蟆说。“正是这样！而这就是你小时候所体验到的。这样仁慈的独裁者，也就是你的父母，显然占了上风，而你又完全依赖着他们，你怎么能对他们生气呢？何况你还爱着他们。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“没有一种批判比自我批判更强烈，也没有一个法官比我们自己更严苛。”苍鹭答道。“天哪，你是说我们会惩罚自己？”“会严厉地惩罚，包括折磨自己，在极端案例里，甚至会施以极刑。但问题是，即便对自己轻判，这种谴责和惩罚也可能伴随一生，变成无期徒刑。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>如果我们都给自己童年的某一天拍照的话，每个人的照片都会非常不同，是吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“亲爱的蛤蟆，”苍鹭耐心地回答，“一切的关键就在于那是‘人生坐标’。一旦我们在童年决定用哪种态度和观点，我们就会在随后的人生里始终坚持自己的选择。这些态度和观点，变成我们存在的底层架构。从那以后，我们便建构出一个世界，不断确认和支持这些信念和预期。换一个词来说，我们把自己的人生变成了一个‘自证预言’。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>“因为愤怒能够非常有效地抵抗抑郁。愤怒的人从不觉得内疚，因为他们总在怪罪别人。他们自卫的方式，是把自己内在的恐惧对外投射到别人身上，这样就能把对自己的怒火转向别人。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>河鼠决定要用一顿午宴来纪念蛤蟆的康复。他说：“人们太容易让重要的事件就这么过去，忘记关注或为它们庆祝，也许是因为我们通常都只在事后才明白它们有多重要。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>他说：“你看鸭子在水面游，外表特别平静，其实在水下，它的脚底扑棱扑棱地动得厉害。”</t>
   </si>
   <si>
     <t>平均分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>他说：“你看鸭子在水面游，外表特别平静，其实在水下，它的脚底扑棱扑棱地动得厉害。”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>康辉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>第一场是APEC各经济体召开一次记者会，原定时间到了，画面应该切到现场，但记者会还没开始，一直延后、延后，于是我一个人在演播室里撑了近20分钟。最后一天闭幕会也是如此，切到现场又没开始，延后了38分钟，好在那一场有一位嘉宾在，我们就在演播室里多说了38分钟！那真是很惶恐的时刻、无助的时刻、硬扛的时刻，但扛到最后，也豁然开朗，一下子松弛了。直播其实是最人本化的传播方式，直面嘉宾和观众，摒除杂念，有什么问什么，有什么说什么，自然而然、水到渠成地说就行了。不要担心会不会犯傻，相信自己的新闻素质，不要担心自己语无伦次，相信自己多年的基本功，相信平时的日积月累正是为那没有准备的一刻做的准备……</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当然，前提是你有这种潜力、你做了足够的准备。也是从实习开始，我懂得了职业尊严和机会不是谁赐予的，要靠自己一天天一次次工作的高质量完成累积，只有自己才能成全自己。</t>
   </si>
   <si>
     <t>我们并不是总能以紧迫事务为借口来推卸对与自己一起生活的那些人的义务。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>沉思录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>马可·奥勒留</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我们的爱情，是你路过的风景</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
   </si>
   <si>
     <t>一直很安静</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>阿桑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>散落的月光穿过了云，躲着人群，铺成大海的鳞</t>
   </si>
   <si>
     <t>海底</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>散落的月光穿过了云，躲着人群，铺成大海的鳞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当阳光照在海面上，我思念着你。 当朦胧月色洒在泉水上，我思念着你。 看看窗外,如果树枝在风中轻轻摇曳，你爱的人便也在爱着你。 侧耳倾听，如果你听到自己的心跳，你爱的人便也在爱着你。 闭上眼睛，如果你唇边有一丝微笑，你爱的人便也在爱着你。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>假如爱有天意</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1001,7 +796,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1009,16 +855,22 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线 Light"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1027,48 +879,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1077,7 +887,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1086,15 +895,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1103,24 +903,20 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1129,28 +925,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1158,16 +946,8 @@
       <sz val="11"/>
       <color rgb="FF121212"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1179,175 +959,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1357,6 +1150,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1382,22 +1205,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,15 +1225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1441,17 +1240,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,131 +1260,152 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,68 +1413,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1669,18 +1486,18 @@
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
   <Schema ID="Schema2">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="data">
+    <xsd:schema xmlns="" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+      <xsd:element name="data" nillable="true">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="sentence" form="unqualified">
+            <xsd:element form="unqualified" maxOccurs="unbounded" minOccurs="0" name="sentence" nillable="true">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="no" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="hitokoto" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="from" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="from_who" form="unqualified"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="no" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="hitokoto" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="type" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="from" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="from_who" nillable="true" type="xsd:string"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -1690,27 +1507,27 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="data_Map" RootElement="data" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding DataBindingName="Binding1" FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E161" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1" displayName="Table1" ref="A1:E161" tableType="xml" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="No" name="No">
+    <tableColumn id="1" name="No" uniqueName="no">
       <xmlColumnPr mapId="1" xpath="/data/sentence/no" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="hitokoto" name="hitokoto">
+    <tableColumn id="2" name="hitokoto" uniqueName="hitokoto">
       <xmlColumnPr mapId="1" xpath="/data/sentence/hitokoto" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="type" name="type">
+    <tableColumn id="3" name="type" uniqueName="type">
       <xmlColumnPr mapId="1" xpath="/data/sentence/type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="from" name="from">
+    <tableColumn id="4" name="from" uniqueName="from">
       <xmlColumnPr mapId="1" xpath="/data/sentence/from" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="from_who" name="from_who">
+    <tableColumn id="5" name="from_who" uniqueName="from_who">
       <xmlColumnPr mapId="1" xpath="/data/sentence/from_who" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1761,7 +1578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1794,26 +1611,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1846,23 +1646,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2004,33 +1787,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.66371681415929" customWidth="1"/>
+    <col min="2" max="2" width="73.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="7.88495575221239" customWidth="1"/>
+    <col min="4" max="4" width="16.1061946902655" customWidth="1"/>
+    <col min="5" max="5" width="18.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2047,12 +1825,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.85" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2061,15 +1839,15 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2078,15 +1856,15 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2095,15 +1873,15 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2112,30 +1890,30 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -2144,15 +1922,15 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -2161,32 +1939,32 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -2195,15 +1973,15 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -2212,15 +1990,15 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -2229,15 +2007,15 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -2246,15 +2024,15 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -2263,15 +2041,15 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -2280,15 +2058,15 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -2297,15 +2075,15 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -2314,15 +2092,15 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -2331,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2345,98 +2123,98 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2447,13 +2225,13 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2464,13 +2242,13 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2481,41 +2259,41 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2523,10 +2301,10 @@
         <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2534,10 +2312,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2545,10 +2323,10 @@
         <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2556,10 +2334,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2567,10 +2345,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2578,13 +2356,13 @@
         <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2592,10 +2370,10 @@
         <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2603,504 +2381,504 @@
         <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customHeight="1" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" customHeight="1" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3108,1442 +2886,1442 @@
         <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" ht="13.9" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" customHeight="1" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" customHeight="1" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" customHeight="1" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" customHeight="1" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" customHeight="1" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" customHeight="1" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" customHeight="1" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" customHeight="1" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" customHeight="1" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" customHeight="1" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D158" s="2" t="s">
+    </row>
+    <row r="159" customHeight="1" spans="2:5">
+      <c r="B159" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="E159" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="2:4">
+      <c r="B160" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
+    </row>
+    <row r="161" customHeight="1" spans="2:4">
+      <c r="B161" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>244</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>